--- a/Milwaukee_Bucks_2025-26_stats.xlsx
+++ b/Milwaukee_Bucks_2025-26_stats.xlsx
@@ -9,8 +9,12 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Points" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assists" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Points" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rebounds" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3PM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Points" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Rebounds" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg 3PM" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1970,7 +1974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1981,173 +1985,753 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Player</t>
+          <t>Game Time (PST)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg Points</t>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jericho Sims</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Myles Turner</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Gary Trent Jr.</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Kevin Porter Jr.</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Bobby Portis</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Gary Harris</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Taurean Prince</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Ryan Rollins</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Amir Coffey</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Kyle Kuzma</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Mark Sears</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>AJ Green</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Giannis Antetokounmpo</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Thanasis Antetokounmpo</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Andre Jackson Jr.</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Cole Anthony</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>33.4</v>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>14</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ryan Rollins</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>16.54545454545455</v>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>20</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kyle Kuzma</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>13.8</v>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>14</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Myles Turner</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>11.63636363636364</v>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>8</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AJ Green</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>10.90909090909091</v>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Gary Trent Jr.</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10.72727272727273</v>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>11</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cole Anthony</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.5</v>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>13</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Kevin Porter Jr.</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>8</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bobby Portis</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9.181818181818182</v>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>15</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Taurean Prince</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6.125</v>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>8</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mark Sears</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Amir Coffey</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1.454545454545455</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Jericho Sims</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Gary Harris</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Thanasis Antetokounmpo</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Andre Jackson Jr.</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>8</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2156,6 +2740,777 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game Time (PST)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jericho Sims</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Myles Turner</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Gary Trent Jr.</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Kevin Porter Jr.</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Bobby Portis</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Gary Harris</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Taurean Prince</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Ryan Rollins</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Amir Coffey</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Kyle Kuzma</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Mark Sears</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>AJ Green</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Giannis Antetokounmpo</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Thanasis Antetokounmpo</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Andre Jackson Jr.</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Cole Anthony</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2177,7 +3532,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg Assists</t>
+          <t>Avg Points</t>
         </is>
       </c>
     </row>
@@ -2188,7 +3543,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.2</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="3">
@@ -2198,12 +3553,203 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.636363636363637</v>
+        <v>16.54545454545455</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Kyle Kuzma</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Myles Turner</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11.63636363636364</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AJ Green</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10.90909090909091</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Gary Trent Jr.</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10.72727272727273</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Cole Anthony</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Kevin Porter Jr.</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Bobby Portis</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9.181818181818182</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Taurean Prince</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6.125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mark Sears</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Amir Coffey</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.454545454545455</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Jericho Sims</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Gary Harris</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Thanasis Antetokounmpo</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Andre Jackson Jr.</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Assists</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Giannis Antetokounmpo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ryan Rollins</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5.636363636363637</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Cole Anthony</t>
         </is>
       </c>
@@ -2335,6 +3881,388 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>Thanasis Antetokounmpo</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Rebounds</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Giannis Antetokounmpo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Myles Turner</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6.636363636363637</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bobby Portis</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5.363636363636363</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Kyle Kuzma</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ryan Rollins</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3.545454545454545</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Cole Anthony</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AJ Green</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.545454545454545</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Gary Trent Jr.</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Taurean Prince</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Amir Coffey</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.181818181818182</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Jericho Sims</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Gary Harris</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Andre Jackson Jr.</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Kevin Porter Jr.</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mark Sears</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Thanasis Antetokounmpo</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg 3PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AJ Green</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.090909090909091</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Gary Trent Jr.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.545454545454545</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ryan Rollins</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.181818181818182</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Myles Turner</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Kevin Porter Jr.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Taurean Prince</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Bobby Portis</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.363636363636364</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Kyle Kuzma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Cole Anthony</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Giannis Antetokounmpo</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mark Sears</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Amir Coffey</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Jericho Sims</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Gary Harris</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Thanasis Antetokounmpo</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Andre Jackson Jr.</t>
         </is>
       </c>
       <c r="B17" t="n">

--- a/Milwaukee_Bucks_2025-26_stats.xlsx
+++ b/Milwaukee_Bucks_2025-26_stats.xlsx
@@ -15,6 +15,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Rebounds" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg 3PM" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Points" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,15 +519,20 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Pete Nance</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Thanasis Antetokounmpo</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Andre Jackson Jr.</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Cole Anthony</t>
         </is>
@@ -589,6 +595,9 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -649,6 +658,9 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>23</v>
       </c>
     </row>
@@ -711,6 +723,9 @@
       <c r="R4" t="n">
         <v>0</v>
       </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -769,6 +784,9 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -829,6 +847,9 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>16</v>
       </c>
     </row>
@@ -889,6 +910,9 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -949,6 +973,9 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1009,6 +1036,9 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1069,6 +1099,9 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1129,6 +1162,9 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1189,6 +1225,72 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>21</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>14</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>25</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>8</v>
+      </c>
+      <c r="M13" t="n">
+        <v>7</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1203,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1289,15 +1391,20 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Pete Nance</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Thanasis Antetokounmpo</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Andre Jackson Jr.</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Cole Anthony</t>
         </is>
@@ -1360,6 +1467,9 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1420,6 +1530,9 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1482,6 +1595,9 @@
       <c r="R4" t="n">
         <v>0</v>
       </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1540,6 +1656,9 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1600,6 +1719,9 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1660,6 +1782,9 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1720,6 +1845,9 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1777,9 +1905,12 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1840,6 +1971,9 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1900,6 +2034,9 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1960,6 +2097,72 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1974,7 +2177,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2060,15 +2263,20 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Pete Nance</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Thanasis Antetokounmpo</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Andre Jackson Jr.</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Cole Anthony</t>
         </is>
@@ -2131,6 +2339,9 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2191,6 +2402,9 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2253,6 +2467,9 @@
       <c r="R4" t="n">
         <v>0</v>
       </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2311,6 +2528,9 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2371,6 +2591,9 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2431,6 +2654,9 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2491,6 +2717,9 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2548,9 +2777,12 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2611,6 +2843,9 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2671,6 +2906,9 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2731,7 +2969,73 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2745,7 +3049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2831,15 +3135,20 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Pete Nance</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Thanasis Antetokounmpo</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Andre Jackson Jr.</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Cole Anthony</t>
         </is>
@@ -2902,6 +3211,9 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2962,6 +3274,9 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3024,6 +3339,9 @@
       <c r="R4" t="n">
         <v>0</v>
       </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3084,6 +3402,9 @@
       <c r="R5" t="n">
         <v>0</v>
       </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3142,6 +3463,9 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3204,6 +3528,9 @@
       <c r="R7" t="n">
         <v>0</v>
       </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3262,6 +3589,9 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3324,6 +3654,9 @@
       <c r="R9" t="n">
         <v>0</v>
       </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3382,6 +3715,9 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3442,6 +3778,9 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3502,6 +3841,72 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3516,7 +3921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3553,7 +3958,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.54545454545455</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="4">
@@ -3563,7 +3968,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.8</v>
+        <v>13.27272727272727</v>
       </c>
     </row>
     <row r="5">
@@ -3573,7 +3978,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.63636363636364</v>
+        <v>12.41666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -3583,7 +3988,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.90909090909091</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="7">
@@ -3593,23 +3998,23 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.72727272727273</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cole Anthony</t>
+          <t>Kevin Porter Jr.</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Kevin Porter Jr.</t>
+          <t>Pete Nance</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -3619,80 +4024,90 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bobby Portis</t>
+          <t>Cole Anthony</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.181818181818182</v>
+        <v>9.909090909090908</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Taurean Prince</t>
+          <t>Bobby Portis</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.125</v>
+        <v>9.583333333333334</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mark Sears</t>
+          <t>Taurean Prince</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>6.125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Amir Coffey</t>
+          <t>Mark Sears</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.454545454545455</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jericho Sims</t>
+          <t>Amir Coffey</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Gary Harris</t>
+          <t>Thanasis Antetokounmpo</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Thanasis Antetokounmpo</t>
+          <t>Jericho Sims</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Gary Harris</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>Andre Jackson Jr.</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3707,7 +4122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3744,7 +4159,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.636363636363637</v>
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -3754,7 +4169,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>4.818181818181818</v>
       </c>
     </row>
     <row r="5">
@@ -3764,13 +4179,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.181818181818182</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Myles Turner</t>
+          <t>Kevin Porter Jr.</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3780,7 +4195,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kevin Porter Jr.</t>
+          <t>Myles Turner</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -3794,96 +4209,106 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.818181818181818</v>
+        <v>1.833333333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bobby Portis</t>
+          <t>Kyle Kuzma</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.363636363636364</v>
+        <v>1.545454545454545</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Kyle Kuzma</t>
+          <t>Bobby Portis</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.3</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Taurean Prince</t>
+          <t>Andre Jackson Jr.</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Andre Jackson Jr.</t>
+          <t>Taurean Prince</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Amir Coffey</t>
+          <t>Gary Harris</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Gary Harris</t>
+          <t>Amir Coffey</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jericho Sims</t>
+          <t>Mark Sears</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Mark Sears</t>
+          <t>Jericho Sims</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Pete Nance</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>Thanasis Antetokounmpo</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3898,7 +4323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3935,7 +4360,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.636363636363637</v>
+        <v>6.333333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -3945,7 +4370,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.363636363636363</v>
+        <v>5.583333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -3955,7 +4380,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.3</v>
+        <v>4.181818181818182</v>
       </c>
     </row>
     <row r="6">
@@ -3965,7 +4390,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.545454545454545</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="7">
@@ -3975,7 +4400,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.5</v>
+        <v>3.363636363636364</v>
       </c>
     </row>
     <row r="8">
@@ -3985,7 +4410,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.545454545454545</v>
+        <v>2.583333333333333</v>
       </c>
     </row>
     <row r="9">
@@ -3995,7 +4420,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1.833333333333333</v>
       </c>
     </row>
     <row r="10">
@@ -4011,31 +4436,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Amir Coffey</t>
+          <t>Jericho Sims</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.181818181818182</v>
+        <v>1.571428571428571</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jericho Sims</t>
+          <t>Amir Coffey</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Gary Harris</t>
+          <t>Pete Nance</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -4045,17 +4470,17 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kevin Porter Jr.</t>
+          <t>Gary Harris</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16">
@@ -4071,10 +4496,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Kevin Porter Jr.</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>Thanasis Antetokounmpo</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4089,7 +4524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4116,7 +4551,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.090909090909091</v>
+        <v>2.916666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -4126,7 +4561,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.545454545454545</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -4136,7 +4571,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.181818181818182</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -4146,7 +4581,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>2.083333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -4162,37 +4597,37 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Taurean Prince</t>
+          <t>Pete Nance</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bobby Portis</t>
+          <t>Taurean Prince</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.363636363636364</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Kyle Kuzma</t>
+          <t>Bobby Portis</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cole Anthony</t>
+          <t>Mark Sears</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -4202,41 +4637,41 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>Cole Anthony</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mark Sears</t>
+          <t>Kyle Kuzma</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Amir Coffey</t>
+          <t>Giannis Antetokounmpo</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jericho Sims</t>
+          <t>Amir Coffey</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="15">
@@ -4267,6 +4702,314 @@
       </c>
       <c r="B17" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Jericho Sims</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game Time (PST)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Team Points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Game Total Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>133</v>
+      </c>
+      <c r="D2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E2" t="n">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>122</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116</v>
+      </c>
+      <c r="E3" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>113</v>
+      </c>
+      <c r="D4" t="n">
+        <v>118</v>
+      </c>
+      <c r="E4" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>121</v>
+      </c>
+      <c r="D5" t="n">
+        <v>111</v>
+      </c>
+      <c r="E5" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>120</v>
+      </c>
+      <c r="D6" t="n">
+        <v>110</v>
+      </c>
+      <c r="E6" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>133</v>
+      </c>
+      <c r="D7" t="n">
+        <v>135</v>
+      </c>
+      <c r="E7" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>117</v>
+      </c>
+      <c r="D8" t="n">
+        <v>115</v>
+      </c>
+      <c r="E8" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>128</v>
+      </c>
+      <c r="E9" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>126</v>
+      </c>
+      <c r="D10" t="n">
+        <v>110</v>
+      </c>
+      <c r="E10" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>115</v>
+      </c>
+      <c r="D11" t="n">
+        <v>122</v>
+      </c>
+      <c r="E11" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>116</v>
+      </c>
+      <c r="D12" t="n">
+        <v>114</v>
+      </c>
+      <c r="E12" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" t="n">
+        <v>111</v>
+      </c>
+      <c r="E13" t="n">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
